--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2542209.538033682</v>
+        <v>2646389.172484753</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9045633.36535193</v>
+        <v>9045633.365351932</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>92.72329049755604</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939448</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>79.05156414054071</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>52.48797850547358</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.0317554412382</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>35.87403110738252</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23.7150739468989</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.23490948285971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>87.61309309741641</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.8293786295328</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.3253474560867</v>
+        <v>124.6502153138713</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>73.23997380652447</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4817021252628</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>31.83025205763987</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>39.99000985192024</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756242</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>65.67353929277246</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>100.5140508960364</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>216.7094028874707</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>79.11532312206231</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4706806359738</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.40964990483374</v>
+        <v>113.7379149844577</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158275</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.1230996349843</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>112.6849016609948</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>78.91051008678056</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>142.6584215897761</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796252</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796252</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>441.1652223009119</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>441.1652223009119</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>441.1652223009119</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>293.2521287185187</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>146.3621812206084</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>146.3621812206084</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1784.445930739482</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1562.679315309008</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1562.679315309008</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1562.679315309008</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.262145272047</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>622.8136871311516</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1935.366530930992</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1208.13831538383</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>822.3500627855854</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>411.3641579959778</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>400.3321118813784</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>102.7485114901456</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102165</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>404.3867599879894</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8175152271517</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>494.5906894197216</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.2215399677106</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.753793082345</v>
+        <v>1519.868898274997</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.753793082345</v>
+        <v>1519.868898274997</v>
       </c>
       <c r="V10" t="n">
-        <v>1451.069304876458</v>
+        <v>1265.18441006911</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.652134839498</v>
+        <v>975.7672400321496</v>
       </c>
       <c r="X10" t="n">
-        <v>933.6625839414804</v>
+        <v>975.7672400321496</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.8700047979503</v>
+        <v>754.9746608886195</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,22 +5296,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819173</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695815</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871884</v>
+        <v>504.8990944011446</v>
       </c>
       <c r="F19" t="n">
-        <v>369.499740389278</v>
+        <v>358.0091469032342</v>
       </c>
       <c r="G19" t="n">
-        <v>202.303641104158</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>2380.626175203723</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>2091.550948547921</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.866460342034</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305074</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407056</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263526</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311994</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032925</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909568</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>482.6390612909568</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614391</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794805</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>4077.535672747197</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>3822.85118454131</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>3822.85118454131</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7327,55 +7329,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.385853854707</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7500,10 +7502,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,19 +7730,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-9.413181999271245e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23416,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.1654765207638</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.35027805667451</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>113.5907959652914</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>151.7319110345158</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>125.1956044930007</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>69.47507150177341</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>66.30572490086894</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.23897475306333</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.4223302771036</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>143.8269525734167</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.708880546953</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52.83923663127405</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>66.51053793615068</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>24.58839950885172</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="15">
@@ -26314,34 +26316,34 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
@@ -26350,7 +26352,7 @@
         <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818163</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26439,16 +26441,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683037</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
+        <v>12996.86414683049</v>
+      </c>
+      <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="L4" t="n">
-        <v>12996.86414683043</v>
-      </c>
       <c r="M4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26522,43 +26524,43 @@
         <v>-872029.1693157408</v>
       </c>
       <c r="C6" t="n">
-        <v>456715.5764118518</v>
+        <v>456715.5764118516</v>
       </c>
       <c r="D6" t="n">
-        <v>456715.5764118516</v>
+        <v>456715.5764118517</v>
       </c>
       <c r="E6" t="n">
-        <v>206185.4239739124</v>
+        <v>206185.4239739122</v>
       </c>
       <c r="F6" t="n">
-        <v>531597.8857812674</v>
+        <v>531597.8857812677</v>
       </c>
       <c r="G6" t="n">
+        <v>531597.8857812675</v>
+      </c>
+      <c r="H6" t="n">
+        <v>531597.8857812675</v>
+      </c>
+      <c r="I6" t="n">
         <v>531597.8857812677</v>
       </c>
-      <c r="H6" t="n">
-        <v>531597.8857812678</v>
-      </c>
-      <c r="I6" t="n">
-        <v>531597.8857812674</v>
-      </c>
       <c r="J6" t="n">
-        <v>314066.6833839902</v>
+        <v>314066.6833839896</v>
       </c>
       <c r="K6" t="n">
-        <v>531597.8857812677</v>
+        <v>531597.8857812673</v>
       </c>
       <c r="L6" t="n">
-        <v>531597.8857812677</v>
+        <v>531597.8857812679</v>
       </c>
       <c r="M6" t="n">
-        <v>446542.8578457558</v>
+        <v>446542.857845756</v>
       </c>
       <c r="N6" t="n">
         <v>531597.8857812678</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812674</v>
+        <v>531597.8857812675</v>
       </c>
       <c r="P6" t="n">
         <v>531597.8857812675</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289.2070795747057</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>314.5552485790745</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>65.70345077378008</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>137.2810468259683</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.7020862222424</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.70289866554343</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>122.7188886996703</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>323.308632556037</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>115.9017220489363</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2236018200825072</v>
+        <v>94.89873396229788</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837908</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>485.1127032082907</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N27" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338208</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182826</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.1165249313363</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34450,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004575</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5164587638463</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N27" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394658</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949316</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.13475084531481</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2646389.172484753</v>
+        <v>2642376.562470761</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>55.17585209939448</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>79.05156414054071</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.02719212039671</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>35.87403110738252</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>120.357766521947</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>23.7150739468989</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>87.61309309741641</v>
+        <v>52.33551640890152</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>124.6502153138713</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>73.23997380652447</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576408</v>
       </c>
     </row>
     <row r="14">
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>31.83025205763987</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>39.99000985192024</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.5140508960364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>216.7094028874707</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.4706806359738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.7379149844577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>142.3575218158275</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>112.6849016609948</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>78.91051008678056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>91.89996056624759</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>142.6584215897761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1239.503030201924</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C2" t="n">
-        <v>870.5405132615124</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>512.2748146547618</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>126.4865620565176</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4372,10 +4372,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2016.242202241858</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.102870266046</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
@@ -4412,25 +4412,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441.1652223009119</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>441.1652223009119</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D4" t="n">
-        <v>441.1652223009119</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E4" t="n">
-        <v>293.2521287185187</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F4" t="n">
-        <v>146.3621812206084</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G4" t="n">
-        <v>146.3621812206084</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>79.67089635177607</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X4" t="n">
-        <v>843.6062662746817</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>622.8136871311516</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1935.366530930992</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1566.40401399058</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1208.13831538383</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>822.3500627855854</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>411.3641579959778</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>400.3321118813784</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>102.7485114901456</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930992</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554.5033994003252</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>554.5033994003252</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>404.3867599879894</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
         <v>380.4321398396067</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.5033994003252</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149741</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>905.5765942093292</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>905.5765942093292</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>905.5765942093292</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>494.5906894197216</v>
+        <v>161.3731731815041</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939509</v>
@@ -4843,13 +4843,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1519.868898274997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1519.868898274997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1265.18441006911</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>975.7672400321496</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>975.7672400321496</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5132,16 +5132,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>267.6802639609656</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958734</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>652.8121879835377</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>504.8990944011446</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>358.0091469032342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5846,10 +5846,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3192.420589669523</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4077.535672747197</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3822.85118454131</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3822.85118454131</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3594.861633643293</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3374.069054499763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>734.6461798836013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>584.5295404712656</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>436.6164468888725</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>289.7264993909621</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>564.5188827892232</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>564.5188827892232</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>144.1654765207638</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>113.5907959652914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>125.5341284403486</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.1956044930007</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>69.47507150177341</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>24.63391537253393</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.23897475306333</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.09406519747961</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>143.8269525734167</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>52.83923663127405</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51053793615068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.58839950885172</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
         <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26453,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-872029.1693157408</v>
       </c>
       <c r="C6" t="n">
-        <v>456715.5764118516</v>
+        <v>456715.576411852</v>
       </c>
       <c r="D6" t="n">
         <v>456715.5764118517</v>
       </c>
       <c r="E6" t="n">
-        <v>206185.4239739122</v>
+        <v>205838.0447195552</v>
       </c>
       <c r="F6" t="n">
-        <v>531597.8857812677</v>
+        <v>531250.5065269108</v>
       </c>
       <c r="G6" t="n">
-        <v>531597.8857812675</v>
+        <v>531250.5065269104</v>
       </c>
       <c r="H6" t="n">
-        <v>531597.8857812675</v>
+        <v>531250.5065269104</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812677</v>
+        <v>531250.5065269107</v>
       </c>
       <c r="J6" t="n">
-        <v>314066.6833839896</v>
+        <v>313719.3041296328</v>
       </c>
       <c r="K6" t="n">
-        <v>531597.8857812673</v>
+        <v>531250.5065269106</v>
       </c>
       <c r="L6" t="n">
-        <v>531597.8857812679</v>
+        <v>531250.5065269106</v>
       </c>
       <c r="M6" t="n">
-        <v>446542.857845756</v>
+        <v>446195.4785913987</v>
       </c>
       <c r="N6" t="n">
-        <v>531597.8857812678</v>
+        <v>531250.5065269105</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812675</v>
+        <v>531250.5065269107</v>
       </c>
       <c r="P6" t="n">
-        <v>531597.8857812675</v>
+        <v>531250.5065269104</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26798,16 +26798,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>270.4601319683918</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>314.5552485790745</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>65.70345077378008</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.70289866554343</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>228.883202195466</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>122.7188886996703</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>41.51960553688805</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>323.308632556037</v>
+        <v>358.5862092445519</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>94.89873396229788</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-4.16805705609121e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717705</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>232.75998908852</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>502.5232631188761</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>368.5488557045459</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2642376.562470761</v>
+        <v>2644137.092773546</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9045633.365351932</v>
+        <v>9045633.36535193</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.76470074483056</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039671</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>120.357766521947</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>254.6480068458448</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.41254713315928</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>47.41254713315973</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222619</v>
       </c>
       <c r="G8" t="n">
-        <v>52.33551640890152</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855298</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.8302520576408</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370328</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.74133133758772</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016416</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>146.1850499531051</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.97538618064</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518386</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395028</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571097</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591993</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177607</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051533</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2303.170539913434</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X5" t="n">
-        <v>2303.170539913434</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.170539913434</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
         <v>380.4321398396067</v>
@@ -4719,25 +4719,25 @@
         <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,13 +4749,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1879.403086337827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
         <v>1879.403086337827</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116518</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>958.147330569356</v>
+        <v>764.3411331473119</v>
       </c>
       <c r="E8" t="n">
-        <v>572.3590779711117</v>
+        <v>378.5528805490677</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815041</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.97538618064</v>
+        <v>1878.169188758596</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033214</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.4944101284095</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5214,37 +5214,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.1428749586493</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,31 +5296,31 @@
         <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
         <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5442,31 +5442,31 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854707</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111723</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,13 +6481,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6882,7 +6882,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7089,16 +7089,16 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797747</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7314,22 +7314,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7642,34 +7642,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.5054897610394</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.754401294454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194085</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.63391537253393</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.22040037418316</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.32043864788525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778988.1490057521</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.2797520049</v>
@@ -26343,19 +26343,19 @@
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818161</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683038</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26453,7 +26453,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872029.1693157408</v>
+        <v>-872029.1693157414</v>
       </c>
       <c r="C6" t="n">
-        <v>456715.576411852</v>
+        <v>456715.5764118519</v>
       </c>
       <c r="D6" t="n">
         <v>456715.5764118517</v>
       </c>
       <c r="E6" t="n">
-        <v>205838.0447195552</v>
+        <v>206150.6860484762</v>
       </c>
       <c r="F6" t="n">
-        <v>531250.5065269108</v>
+        <v>531563.147855832</v>
       </c>
       <c r="G6" t="n">
-        <v>531250.5065269104</v>
+        <v>531563.1478558322</v>
       </c>
       <c r="H6" t="n">
-        <v>531250.5065269104</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="I6" t="n">
-        <v>531250.5065269107</v>
+        <v>531563.147855832</v>
       </c>
       <c r="J6" t="n">
-        <v>313719.3041296328</v>
+        <v>314031.945458554</v>
       </c>
       <c r="K6" t="n">
-        <v>531250.5065269106</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="L6" t="n">
-        <v>531250.5065269106</v>
+        <v>531563.147855832</v>
       </c>
       <c r="M6" t="n">
-        <v>446195.4785913987</v>
+        <v>446508.1199203201</v>
       </c>
       <c r="N6" t="n">
-        <v>531250.5065269105</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="O6" t="n">
-        <v>531250.5065269107</v>
+        <v>531563.147855832</v>
       </c>
       <c r="P6" t="n">
-        <v>531250.5065269104</v>
+        <v>531563.1478558318</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4601319683918</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.473237911223</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944138</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>228.883202195466</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>131.5899318102088</v>
       </c>
     </row>
     <row r="6">
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.51960553688805</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>238.7992910724531</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194496</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445519</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911068</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29720,7 +29720,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.16805705609121e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717705</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>466.5925882502508</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669195</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>361.7519118779092</v>
@@ -34474,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884371</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924701</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>219.1556674334648</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
